--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.32807312641188</v>
+        <v>100.1571310441243</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.5401693591028</v>
+        <v>137.0394053152844</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.18124793258221</v>
+        <v>123.9605568080437</v>
       </c>
       <c r="AD2" t="n">
-        <v>79328.07312641188</v>
+        <v>100157.1310441243</v>
       </c>
       <c r="AE2" t="n">
-        <v>108540.1693591028</v>
+        <v>137039.4053152844</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.879288671698228e-06</v>
+        <v>6.558129975072647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.225694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>98181.24793258221</v>
+        <v>123960.5568080437</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.92859690207918</v>
+        <v>84.67231396521997</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.46992661203845</v>
+        <v>115.8523954460224</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.12191958101948</v>
+        <v>104.7956054245422</v>
       </c>
       <c r="AD3" t="n">
-        <v>63928.59690207918</v>
+        <v>84672.31396521998</v>
       </c>
       <c r="AE3" t="n">
-        <v>87469.92661203846</v>
+        <v>115852.3954460224</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.574515499417932e-06</v>
+        <v>7.73344542184689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.427083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>79121.91958101948</v>
+        <v>104795.6054245422</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.21262928754646</v>
+        <v>83.95634635068726</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.49030813557334</v>
+        <v>114.8727769695573</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.23579451704475</v>
+        <v>103.9094803605675</v>
       </c>
       <c r="AD4" t="n">
-        <v>63212.62928754646</v>
+        <v>83956.34635068725</v>
       </c>
       <c r="AE4" t="n">
-        <v>86490.30813557334</v>
+        <v>114872.7769695573</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.64019850405796e-06</v>
+        <v>7.844485800132025e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.366319444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>78235.79451704475</v>
+        <v>103909.4803605675</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.03524551422619</v>
+        <v>93.22160819123457</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.24760383129691</v>
+        <v>127.5499169742917</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.01625357093076</v>
+        <v>115.3767319157318</v>
       </c>
       <c r="AD2" t="n">
-        <v>63035.24551422619</v>
+        <v>93221.60819123457</v>
       </c>
       <c r="AE2" t="n">
-        <v>86247.60383129692</v>
+        <v>127549.9169742917</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.518527784690333e-06</v>
+        <v>7.825145784589227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>78016.25357093076</v>
+        <v>115376.7319157318</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.32899124064149</v>
+        <v>80.42487558234092</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.54478734266787</v>
+        <v>110.0408628668136</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.6668286910397</v>
+        <v>99.53871735815405</v>
       </c>
       <c r="AD3" t="n">
-        <v>60328.99124064149</v>
+        <v>80424.87558234092</v>
       </c>
       <c r="AE3" t="n">
-        <v>82544.78734266787</v>
+        <v>110040.8628668135</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.998124850150277e-06</v>
+        <v>8.655707669768038e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.192708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>74666.8286910397</v>
+        <v>99538.71735815404</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.21235724153262</v>
+        <v>71.35783712094251</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.80749474135838</v>
+        <v>97.63494083442885</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.85884962922009</v>
+        <v>88.31679911271526</v>
       </c>
       <c r="AD2" t="n">
-        <v>53212.35724153262</v>
+        <v>71357.83712094251</v>
       </c>
       <c r="AE2" t="n">
-        <v>72807.49474135839</v>
+        <v>97634.94083442885</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.814528350618518e-06</v>
+        <v>1.10023388660953e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.019097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>65858.84962922009</v>
+        <v>88316.79911271526</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.88928660802396</v>
+        <v>74.79729681994804</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.47018759837873</v>
+        <v>102.3409613328586</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.17198022058929</v>
+        <v>92.57368361971766</v>
       </c>
       <c r="AD2" t="n">
-        <v>55889.28660802396</v>
+        <v>74797.29681994804</v>
       </c>
       <c r="AE2" t="n">
-        <v>76470.18759837873</v>
+        <v>102340.9613328586</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.52251822516265e-06</v>
+        <v>1.006082885456535e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.053819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>69171.98022058929</v>
+        <v>92573.68361971766</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.92775443273079</v>
+        <v>74.83576464465486</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.52282097322323</v>
+        <v>102.3935947077031</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.21959034001007</v>
+        <v>92.62129373913842</v>
       </c>
       <c r="AD3" t="n">
-        <v>55927.75443273078</v>
+        <v>74835.76464465486</v>
       </c>
       <c r="AE3" t="n">
-        <v>76522.82097322324</v>
+        <v>102393.5947077031</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.517930024422014e-06</v>
+        <v>1.005247014925739e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.053819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>69219.59034001007</v>
+        <v>92621.29373913842</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.32300364485257</v>
+        <v>68.8430522329664</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.22239779798409</v>
+        <v>94.19410120622243</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.52047070991426</v>
+        <v>85.20434838937504</v>
       </c>
       <c r="AD2" t="n">
-        <v>51323.00364485257</v>
+        <v>68843.05223296639</v>
       </c>
       <c r="AE2" t="n">
-        <v>70222.39779798409</v>
+        <v>94194.10120622243</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.894369915833901e-06</v>
+        <v>1.155106586629095e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.123263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>63520.47070991425</v>
+        <v>85204.34838937504</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.37805073673817</v>
+        <v>94.8198293522144</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.08488917712231</v>
+        <v>129.7366736752846</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.67819098199732</v>
+        <v>117.354787626315</v>
       </c>
       <c r="AD2" t="n">
-        <v>64378.05073673817</v>
+        <v>94819.82935221439</v>
       </c>
       <c r="AE2" t="n">
-        <v>88084.88917712231</v>
+        <v>129736.6736752846</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.356328160447152e-06</v>
+        <v>7.494980732834538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>79678.19098199732</v>
+        <v>117354.787626315</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.25288931733637</v>
+        <v>81.51905095134767</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.80890545070764</v>
+        <v>111.5379618782983</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.81030114104945</v>
+        <v>100.8929353411748</v>
       </c>
       <c r="AD3" t="n">
-        <v>61252.88931733637</v>
+        <v>81519.05095134767</v>
       </c>
       <c r="AE3" t="n">
-        <v>83808.90545070764</v>
+        <v>111537.9618782983</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.879978676437797e-06</v>
+        <v>8.395911604783795e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.253472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>75810.30114104945</v>
+        <v>100892.9353411748</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.19653790369509</v>
+        <v>81.4626995377064</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.73180296051477</v>
+        <v>111.4608593881055</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.74055720430655</v>
+        <v>100.8231914044319</v>
       </c>
       <c r="AD4" t="n">
-        <v>61196.5379036951</v>
+        <v>81462.6995377064</v>
       </c>
       <c r="AE4" t="n">
-        <v>83731.80296051477</v>
+        <v>111460.8593881055</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.878614691636286e-06</v>
+        <v>8.393564894565767e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.253472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>75740.55720430655</v>
+        <v>100823.1914044319</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.18693932182534</v>
+        <v>67.33663894164708</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.66798447159833</v>
+        <v>92.13296008277638</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.11440840976547</v>
+        <v>83.33991968192026</v>
       </c>
       <c r="AD2" t="n">
-        <v>50186.93932182533</v>
+        <v>67336.63894164708</v>
       </c>
       <c r="AE2" t="n">
-        <v>68667.98447159833</v>
+        <v>92132.96008277638</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.900657289900779e-06</v>
+        <v>1.182881386499621e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.210069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>62114.40840976547</v>
+        <v>83339.91968192026</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.41586711485529</v>
+        <v>79.95911925746435</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.66365474646021</v>
+        <v>109.4035945153989</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.77435155664557</v>
+        <v>98.96226900378645</v>
       </c>
       <c r="AD2" t="n">
-        <v>60415.86711485529</v>
+        <v>79959.11925746435</v>
       </c>
       <c r="AE2" t="n">
-        <v>82663.6547464602</v>
+        <v>109403.5945153989</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.826323346162969e-06</v>
+        <v>8.547777275180249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.470486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>74774.35155664558</v>
+        <v>98962.26900378645</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.27971294970368</v>
+        <v>77.82296509231273</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.74087437723063</v>
+        <v>106.4808141461693</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.13051724370634</v>
+        <v>96.31843469084721</v>
       </c>
       <c r="AD3" t="n">
-        <v>58279.71294970368</v>
+        <v>77822.96509231273</v>
       </c>
       <c r="AE3" t="n">
-        <v>79740.87437723062</v>
+        <v>106480.8141461693</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.237537429827808e-06</v>
+        <v>9.276067973394421e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.123263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>72130.51724370633</v>
+        <v>96318.43469084721</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.84530443528758</v>
+        <v>81.93502867751022</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.61947395059853</v>
+        <v>112.1071209548757</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.54351012095105</v>
+        <v>101.4077746743036</v>
       </c>
       <c r="AD2" t="n">
-        <v>61845.30443528758</v>
+        <v>81935.02867751021</v>
       </c>
       <c r="AE2" t="n">
-        <v>84619.47395059853</v>
+        <v>112107.1209548757</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.668700194251324e-06</v>
+        <v>8.141805471587961e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>76543.51012095106</v>
+        <v>101407.7746743036</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.78110030522197</v>
+        <v>79.7002323468524</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.7951387935851</v>
+        <v>109.0493740230154</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.9887255473428</v>
+        <v>98.64185481804432</v>
       </c>
       <c r="AD3" t="n">
-        <v>59781.10030522197</v>
+        <v>79700.2323468524</v>
       </c>
       <c r="AE3" t="n">
-        <v>81795.13879358509</v>
+        <v>109049.3740230154</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.043283371221304e-06</v>
+        <v>8.795045823918627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.192708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>73988.72554734279</v>
+        <v>98641.85481804432</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.87761067458585</v>
+        <v>98.55255083083533</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.5555826426283</v>
+        <v>134.8439478783806</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.38606738694241</v>
+        <v>121.9746307475735</v>
       </c>
       <c r="AD2" t="n">
-        <v>77877.61067458586</v>
+        <v>98552.55083083533</v>
       </c>
       <c r="AE2" t="n">
-        <v>106555.5826426283</v>
+        <v>134843.9478783806</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.011047174072447e-06</v>
+        <v>6.81851435824141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.095486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>96386.06738694242</v>
+        <v>121974.6307475735</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.15904989027363</v>
+        <v>83.7486491919515</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.41699844046852</v>
+        <v>114.5885965540232</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.16948139634991</v>
+        <v>103.6524217250422</v>
       </c>
       <c r="AD3" t="n">
-        <v>63159.04989027363</v>
+        <v>83748.6491919515</v>
       </c>
       <c r="AE3" t="n">
-        <v>86416.99844046852</v>
+        <v>114588.5965540232</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.653387866470642e-06</v>
+        <v>7.910450963303317e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.392361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>78169.4813963499</v>
+        <v>103652.4217250422</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.46534996784773</v>
+        <v>83.05494926952559</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.46784760272521</v>
+        <v>113.6394457162799</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.31091618241894</v>
+        <v>102.7938565111112</v>
       </c>
       <c r="AD4" t="n">
-        <v>62465.34996784773</v>
+        <v>83054.94926952559</v>
       </c>
       <c r="AE4" t="n">
-        <v>85467.84760272522</v>
+        <v>113639.4457162799</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.743312269472214e-06</v>
+        <v>8.063316488542195e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.305555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>77310.91618241894</v>
+        <v>102793.8565111112</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.95840571145205</v>
+        <v>76.0894470877392</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.93300352189435</v>
+        <v>104.1089383348962</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.49518704544008</v>
+        <v>94.17292737805258</v>
       </c>
       <c r="AD2" t="n">
-        <v>56958.40571145205</v>
+        <v>76089.4470877392</v>
       </c>
       <c r="AE2" t="n">
-        <v>77933.00352189435</v>
+        <v>104108.9383348962</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.372509491327798e-06</v>
+        <v>9.687905963200954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>70495.18704544008</v>
+        <v>94172.92737805258</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.75498541837143</v>
+        <v>75.88602679465858</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.65467490263164</v>
+        <v>103.8306097156334</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.24342171896305</v>
+        <v>93.92116205157554</v>
       </c>
       <c r="AD3" t="n">
-        <v>56754.98541837143</v>
+        <v>75886.02679465858</v>
       </c>
       <c r="AE3" t="n">
-        <v>77654.67490263164</v>
+        <v>103830.6097156334</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.41506825585267e-06</v>
+        <v>9.764649486742884e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.079861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>70243.42171896304</v>
+        <v>93921.16205157553</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.17295835279185</v>
+        <v>72.59114800572351</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.12183156051272</v>
+        <v>99.32241119682153</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.04774798703805</v>
+        <v>89.84321967210126</v>
       </c>
       <c r="AD2" t="n">
-        <v>54172.95835279185</v>
+        <v>72591.14800572352</v>
       </c>
       <c r="AE2" t="n">
-        <v>74121.83156051271</v>
+        <v>99322.41119682153</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.705427816913779e-06</v>
+        <v>1.064450460779288e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.036458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67047.74798703805</v>
+        <v>89843.21967210126</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.36834932891275</v>
+        <v>70.21674327587732</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.65268588031128</v>
+        <v>96.0736458941039</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.81425410508653</v>
+        <v>86.90451197020323</v>
       </c>
       <c r="AD2" t="n">
-        <v>52368.34932891275</v>
+        <v>70216.74327587732</v>
       </c>
       <c r="AE2" t="n">
-        <v>71652.68588031128</v>
+        <v>96073.6458941039</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.843333995830746e-06</v>
+        <v>1.123694796588841e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.071180555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>64814.25410508654</v>
+        <v>86904.51197020322</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.99714870101404</v>
+        <v>65.7160308551985</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.0400604543475</v>
+        <v>89.91557260271571</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.64185117591482</v>
+        <v>81.33415655083301</v>
       </c>
       <c r="AD2" t="n">
-        <v>48997.14870101404</v>
+        <v>65716.03085519849</v>
       </c>
       <c r="AE2" t="n">
-        <v>67040.06045434749</v>
+        <v>89915.57260271571</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.774462557982606e-06</v>
+        <v>1.191040255332949e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.427083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>60641.85117591482</v>
+        <v>81334.15655083301</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.95526665326807</v>
+        <v>80.690467247622</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.40168499154434</v>
+        <v>110.4042571003283</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.44194523097107</v>
+        <v>99.86742975604926</v>
       </c>
       <c r="AD2" t="n">
-        <v>60955.26665326807</v>
+        <v>80690.467247622</v>
       </c>
       <c r="AE2" t="n">
-        <v>83401.68499154435</v>
+        <v>110404.2571003283</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.785570327194093e-06</v>
+        <v>8.408058284775028e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.461805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>75441.94523097108</v>
+        <v>99867.42975604926</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.8360762093097</v>
+        <v>78.57127680366362</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.50211513403791</v>
+        <v>107.5046872428218</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.81910625109228</v>
+        <v>97.24459077617045</v>
       </c>
       <c r="AD3" t="n">
-        <v>58836.0762093097</v>
+        <v>78571.27680366363</v>
       </c>
       <c r="AE3" t="n">
-        <v>80502.11513403791</v>
+        <v>107504.6872428218</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.190260039507948e-06</v>
+        <v>9.119082145201459e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>72819.10625109228</v>
+        <v>97244.59077617046</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.79988625565387</v>
+        <v>96.48826571832853</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.03030726105789</v>
+        <v>132.0195019176184</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.43794109441413</v>
+        <v>119.4197459451707</v>
       </c>
       <c r="AD2" t="n">
-        <v>65799.88625565388</v>
+        <v>96488.26571832853</v>
       </c>
       <c r="AE2" t="n">
-        <v>90030.30726105788</v>
+        <v>132019.5019176184</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.197452582955778e-06</v>
+        <v>7.177176142683446e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.904513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>81437.94109441413</v>
+        <v>119419.7459451707</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.62603046144385</v>
+        <v>83.05659266025413</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.68769774278641</v>
+        <v>113.6416942759759</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.50978413367439</v>
+        <v>102.7958904714257</v>
       </c>
       <c r="AD3" t="n">
-        <v>62626.03046144386</v>
+        <v>83056.59266025413</v>
       </c>
       <c r="AE3" t="n">
-        <v>85687.69774278642</v>
+        <v>113641.6942759759</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.698546764028474e-06</v>
+        <v>8.033991349181835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.383680555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>77509.78413367439</v>
+        <v>102795.8904714258</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.73489433334711</v>
+        <v>82.16545653215738</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.46840597817375</v>
+        <v>112.4224025113633</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.40685986378921</v>
+        <v>101.6929662015406</v>
       </c>
       <c r="AD4" t="n">
-        <v>61734.89433334711</v>
+        <v>82165.45653215738</v>
       </c>
       <c r="AE4" t="n">
-        <v>84468.40597817375</v>
+        <v>112422.4025113633</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.838564653276226e-06</v>
+        <v>8.2734063358665e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.253472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>76406.85986378921</v>
+        <v>101692.9662015406</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.66964714979137</v>
+        <v>71.99809169546116</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.22371426673043</v>
+        <v>98.51096538932315</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.99885451918547</v>
+        <v>89.1092171135989</v>
       </c>
       <c r="AD2" t="n">
-        <v>47669.64714979137</v>
+        <v>71998.09169546116</v>
       </c>
       <c r="AE2" t="n">
-        <v>65223.71426673043</v>
+        <v>98510.96538932314</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.349309796842272e-06</v>
+        <v>1.146603473570059e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>58998.85451918547</v>
+        <v>89109.2171135989</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.01410886071348</v>
+        <v>73.68534546485145</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.27273079439192</v>
+        <v>100.8195404329846</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.08880701333341</v>
+        <v>91.1974649951995</v>
       </c>
       <c r="AD2" t="n">
-        <v>55014.10886071349</v>
+        <v>73685.34546485145</v>
       </c>
       <c r="AE2" t="n">
-        <v>75272.73079439191</v>
+        <v>100819.5404329846</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.632717688552731e-06</v>
+        <v>1.03779023304455e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>68088.80701333341</v>
+        <v>91197.46499519949</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.50846818073693</v>
+        <v>77.85074531652084</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.0538673762987</v>
+        <v>106.5188242745078</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.41363863023187</v>
+        <v>96.35281718588463</v>
       </c>
       <c r="AD2" t="n">
-        <v>58508.46818073693</v>
+        <v>77850.74531652084</v>
       </c>
       <c r="AE2" t="n">
-        <v>80053.8673762987</v>
+        <v>106518.8242745078</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.123345373856033e-06</v>
+        <v>9.152482617457628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.262152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>72413.63863023187</v>
+        <v>96352.81718588463</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.54021694543778</v>
+        <v>76.88249408122169</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.72906331993332</v>
+        <v>105.1940202181425</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.21527201363142</v>
+        <v>95.15445056928418</v>
       </c>
       <c r="AD3" t="n">
-        <v>57540.21694543778</v>
+        <v>76882.4940812217</v>
       </c>
       <c r="AE3" t="n">
-        <v>78729.06331993332</v>
+        <v>105194.0202181425</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.320188133818047e-06</v>
+        <v>9.504127842883602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.105902777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>71215.27201363142</v>
+        <v>95154.45056928418</v>
       </c>
     </row>
   </sheetData>
